--- a/Literature Review/3 Graphs data/6 Formal Meth, uncertainty, self-adapt.xlsx
+++ b/Literature Review/3 Graphs data/6 Formal Meth, uncertainty, self-adapt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grisv/GitHub/MRS-ThesisMaterial/Literature Review/3 Graphs data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069B07E5-068F-8E4E-B51E-5C8270164C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE26EF-6392-4C4F-887E-FD32522730D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40340" yWindow="-1760" windowWidth="39100" windowHeight="18140" xr2:uid="{50919310-6A47-D04D-AE2F-79A6E32E45BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="18000" xr2:uid="{50919310-6A47-D04D-AE2F-79A6E32E45BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="233">
   <si>
     <t>Bibitex</t>
   </si>
@@ -733,19 +733,34 @@
     <t>FM</t>
   </si>
   <si>
-    <t>UNC-SA</t>
-  </si>
-  <si>
-    <t>UNC-FM</t>
-  </si>
-  <si>
-    <t>SA-FM</t>
-  </si>
-  <si>
-    <t>UNC-SA-FM</t>
-  </si>
-  <si>
     <t>Total of papers considered:</t>
+  </si>
+  <si>
+    <t>only uncertainty:</t>
+  </si>
+  <si>
+    <t>only self-adapt</t>
+  </si>
+  <si>
+    <t>only formal m.</t>
+  </si>
+  <si>
+    <t>uncert &amp; self-adap</t>
+  </si>
+  <si>
+    <t>uncert &amp; formal m</t>
+  </si>
+  <si>
+    <t>formal &amp; self-adapt</t>
+  </si>
+  <si>
+    <t>all 3</t>
+  </si>
+  <si>
+    <t>UNCERTAINTIES</t>
+  </si>
+  <si>
+    <t>(use to count total)</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1013,10 +1028,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1048,7 +1060,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1085,45 +1096,738 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1115013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4319918" cy="4241800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+      <xdr:colOff>53672</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>13804</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9C7A0A-87DE-E644-A1FC-5462A5807C00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327FC0C0-AFAC-584C-2802-A12C49F79740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6934200" y="1041400"/>
-          <a:ext cx="4319918" cy="4241800"/>
+          <a:off x="1943274" y="3124972"/>
+          <a:ext cx="5205833" cy="4384593"/>
+          <a:chOff x="10335594" y="2159923"/>
+          <a:chExt cx="4604023" cy="3900185"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="Group 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177A16EE-BDA4-4141-AEFD-788C4204010B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10720450" y="2170030"/>
+            <a:ext cx="3051755" cy="3829219"/>
+            <a:chOff x="10686992" y="2129380"/>
+            <a:chExt cx="3043869" cy="3758340"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Oval 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B4C2B1-795C-844B-9963-E5F8DAC2D8A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10686992" y="2129380"/>
+              <a:ext cx="3017520" cy="3017520"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Oval 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3408CD-F892-6A39-0583-A01819F806D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11074400" y="3784600"/>
+              <a:ext cx="2103120" cy="2103120"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="29160"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Oval 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA49B2D5-0EF5-7C42-9475-A20FE60240DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11627741" y="3005684"/>
+              <a:ext cx="2103120" cy="2103120"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+                <a:alpha val="15655"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D863B8CE-2344-1F94-9346-FFF07353FA09}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10464362" y="2159923"/>
+            <a:ext cx="1478721" cy="452230"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Uncertainty</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431B0749-5A56-834D-8568-E5B126B892FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10335594" y="5034169"/>
+            <a:ext cx="942559" cy="671996"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Formal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>methods</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99BF259-938F-E240-B273-A4A46AA57DFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12924735" y="4533899"/>
+            <a:ext cx="2014882" cy="671996"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Self-</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>adaptation</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="TextBox 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5573D7E1-87B4-5B42-B118-55F6A6951EB0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11554241" y="2871305"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>11</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D781AAE9-AAD0-6441-B1AE-BF565A1331E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11899348" y="5563152"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>8</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="TextBox 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B3070E-90A7-F64C-9836-E0D38D59605F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13431632" y="4417392"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="TextBox 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76507DD-52EA-4144-99D3-F34FF7CBB19B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12824793" y="3506857"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>14</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793834FB-E51C-EB48-9E36-D322DE6CB649}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11526630" y="4348370"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>6</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="TextBox 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0D5D6D-277A-3E47-BA35-C8DB013919EF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12948479" y="4845326"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="TextBox 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76774A8-1307-E64C-8BB0-6B1411137626}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12299674" y="4320761"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>7</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1424,41 +2128,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16524EE4-B315-8646-AAD8-D0C34CFD31A1}">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>220</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Sheet1!H2:H74,"YES")</f>
         <v>38</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <f>D2/$G$2</f>
         <v>0.52054794520547942</v>
       </c>
@@ -1467,85 +2171,124 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>221</v>
       </c>
       <c r="D3">
         <f>COUNTIF(Sheet1!I2:I74,"YES")</f>
         <v>23</v>
       </c>
-      <c r="E3" s="27">
-        <f t="shared" ref="E3:E8" si="0">D3/$G$2</f>
+      <c r="E3" s="25">
+        <f>D3/$G$2</f>
         <v>0.31506849315068491</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>222</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Sheet1!J2:J74,"YES")</f>
         <v>22</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
+        <f>D4/$G$2</f>
+        <v>0.30136986301369861</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"-")</f>
+        <v>11</v>
+      </c>
+      <c r="E5" s="25">
+        <f>D5/$G$2</f>
+        <v>0.15068493150684931</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" ref="E6:E11" si="0">D6/$G$2</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES")</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="25">
         <f t="shared" si="0"/>
-        <v>0.30136986301369861</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C5" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5">
-        <f>COUNTIFS(Sheet1!H2:H74,"YES",Sheet1!I2:I74,"YES",Sheet1!J2:J74,"-")</f>
+        <v>0.1095890410958904</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-")</f>
         <v>14</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E8" s="25">
         <f t="shared" si="0"/>
         <v>0.19178082191780821</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6">
-        <f>COUNTIFS(Sheet1!H2:H74,"YES",Sheet1!I2:I74,"-",Sheet1!J2:J74,"YES")</f>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES")</f>
         <v>6</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>8.2191780821917804E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7">
-        <f>COUNTIFS(Sheet1!H2:H74,"-",Sheet1!I2:I74,"YES",Sheet1!J2:J74,"YES")</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="27">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES")</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8">
-        <f>COUNTIFS(Sheet1!H2:H74,"YES",Sheet1!I2:I74,"YES",Sheet1!J2:J74,"YES")</f>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES")</f>
         <v>7</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>9.5890410958904104E-2</v>
       </c>
@@ -1558,2286 +2301,2510 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A57DEA-80F0-8D48-81F9-BBB023D1BBDD}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="38" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="68" style="1" customWidth="1"/>
     <col min="5" max="6" width="44.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>151</v>
       </c>
       <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="21" t="str">
-        <f t="shared" ref="H2:H4" si="0">IF( OR( ISBLANK(D2), D2="-"),"-","YES")</f>
-        <v>YES</v>
-      </c>
-      <c r="I2" s="22" t="str">
+      <c r="E2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="20" t="str">
+        <f t="shared" ref="H2" si="0">IF( OR( ISBLANK(D2), D2="-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="I2" t="str">
         <f t="shared" ref="I2" si="1">IF( OR( ISBLANK(E2), E2="-"),"-","YES")</f>
         <v>-</v>
       </c>
-      <c r="J2" s="23" t="str">
+      <c r="J2" s="21" t="str">
         <f t="shared" ref="J2" si="2">IF( OR( ISBLANK(F2), F2="-"),"-","YES")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="21" t="str">
+      <c r="E3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="20" t="str">
         <f t="shared" ref="H3:H66" si="3">IF( OR( ISBLANK(D3), D3="-"),"-","YES")</f>
         <v>YES</v>
       </c>
-      <c r="I3" s="22" t="str">
+      <c r="I3" t="str">
         <f t="shared" ref="I3:I66" si="4">IF( OR( ISBLANK(E3), E3="-"),"-","YES")</f>
         <v>-</v>
       </c>
-      <c r="J3" s="23" t="str">
+      <c r="J3" s="21" t="str">
         <f t="shared" ref="J3:J66" si="5">IF( OR( ISBLANK(F3), F3="-"),"-","YES")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I4" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J4" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J4" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="H5" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I5" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J5" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="14"/>
+      <c r="H5" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J5" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="H6" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J6" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="14"/>
+      <c r="H6" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J6" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="H7" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I7" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J7" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="H7" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J7" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I8" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J8" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J8" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I9" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J9" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J9" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I10" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J10" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J10" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I11" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J11" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J11" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I12" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J12" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J12" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I13" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J13" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J13" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I14" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J14" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J14" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I15" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J15" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J15" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I16" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J16" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I17" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J17" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J17" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I18" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J18" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J18" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I19" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J19" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I20" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J20" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="H20" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J20" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I21" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J21" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J21" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I22" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J22" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J22" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I23" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J23" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J23" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="H24" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I24" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J24" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J24" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="H25" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I25" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J25" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="H25" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J25" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I26" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J26" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J26" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I27" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J27" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J27" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I28" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J28" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J28" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="D29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H29" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I29" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J29" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J29" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I30" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J30" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J30" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I31" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J31" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J31" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="15" t="s">
+      <c r="E32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I32" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J32" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J32" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I33" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J33" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J33" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I34" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J34" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J34" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I35" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J35" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J35" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I36" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J36" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J36" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="D37" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="H37" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I37" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J37" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J37" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I38" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J38" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J38" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I39" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J39" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J39" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="H40" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I40" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J40" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="H40" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J40" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="H41" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I41" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J41" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="H41" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J41" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I42" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J42" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J42" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I43" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J43" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J43" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="H44" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I44" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J44" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="H44" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J44" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="15" t="s">
+      <c r="E45" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="H45" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I45" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J45" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J45" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="H46" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I46" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J46" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="H46" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J46" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I47" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J47" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J47" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I48" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J48" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J48" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="H49" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I49" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J49" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J49" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="H50" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I50" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J50" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="14"/>
+      <c r="H50" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J50" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="H51" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I51" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J51" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="H51" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J51" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I52" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J52" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J52" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I53" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J53" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J53" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I54" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J54" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J54" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="H55" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I55" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J55" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="H55" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J55" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="15" t="s">
+      <c r="D56" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="H56" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I56" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J56" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J56" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="H57" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I57" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J57" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J57" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H58" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I58" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J58" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J58" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="H59" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I59" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J59" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J59" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H60" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I60" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="J60" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="J60" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="H61" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I61" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J61" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="H61" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J61" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I62" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J62" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="14"/>
+      <c r="F62" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J62" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I63" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J63" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J63" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="H64" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I64" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J64" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J64" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="15" t="s">
+      <c r="D65" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="H65" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I65" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J65" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J65" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15" t="s">
+      <c r="E66" s="14"/>
+      <c r="F66" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="H66" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="I66" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="J66" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="J66" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="H67" s="21" t="str">
+      <c r="H67" s="20" t="str">
         <f t="shared" ref="H67:H74" si="6">IF( OR( ISBLANK(D67), D67="-"),"-","YES")</f>
         <v>-</v>
       </c>
-      <c r="I67" s="22" t="str">
+      <c r="I67" t="str">
         <f t="shared" ref="I67:I74" si="7">IF( OR( ISBLANK(E67), E67="-"),"-","YES")</f>
         <v>YES</v>
       </c>
-      <c r="J67" s="23" t="str">
+      <c r="J67" s="21" t="str">
         <f t="shared" ref="J67:J74" si="8">IF( OR( ISBLANK(F67), F67="-"),"-","YES")</f>
         <v>YES</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="15" t="s">
+      <c r="D68" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="H68" s="21" t="str">
+      <c r="H68" s="20" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="I68" s="22" t="str">
+      <c r="I68" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J68" s="23" t="str">
+      <c r="J68" s="21" t="str">
         <f t="shared" si="8"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E69" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="15" t="s">
+      <c r="E69" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="H69" s="21" t="str">
+      <c r="H69" s="20" t="str">
         <f t="shared" si="6"/>
         <v>YES</v>
       </c>
-      <c r="I69" s="22" t="str">
+      <c r="I69" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J69" s="23" t="str">
+      <c r="J69" s="21" t="str">
         <f t="shared" si="8"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="H70" s="21" t="str">
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="H70" s="20" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="I70" s="22" t="str">
+      <c r="I70" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J70" s="23" t="str">
+      <c r="J70" s="21" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H71" s="21" t="str">
+      <c r="E71" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" s="20" t="str">
         <f t="shared" si="6"/>
         <v>YES</v>
       </c>
-      <c r="I71" s="22" t="str">
+      <c r="I71" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J71" s="23" t="str">
+      <c r="J71" s="21" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="H72" s="21" t="str">
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="H72" s="20" t="str">
         <f t="shared" si="6"/>
         <v>YES</v>
       </c>
-      <c r="I72" s="22" t="str">
+      <c r="I72" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J72" s="23" t="str">
+      <c r="J72" s="21" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="H73" s="21" t="str">
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="H73" s="20" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="I73" s="22" t="str">
+      <c r="I73" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J73" s="23" t="str">
+      <c r="J73" s="21" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="H74" s="24" t="str">
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="H74" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="I74" s="25" t="str">
+      <c r="I74" s="23" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J74" s="26" t="str">
+      <c r="J74" s="24" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
     </row>
     <row r="111" spans="4:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
